--- a/biology/Botanique/Laurier_d'Alexandrie/Laurier_d'Alexandrie.xlsx
+++ b/biology/Botanique/Laurier_d'Alexandrie/Laurier_d'Alexandrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laurier_d%27Alexandrie</t>
+          <t>Laurier_d'Alexandrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danae racemosa
 Le Laurier d'Alexandrie ou Fragon à grappes (Danae racemosa (L.) Moench) est une espèce de plantes de la famille des Asparagacées et la seule du genre Danae. Elle est originaire de l'Asie tempérée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laurier_d%27Alexandrie</t>
+          <t>Laurier_d'Alexandrie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante forme un buisson d'environ 60 à 80 cm de diamètre. Elle résiste à des températures basses, jusqu'à -15°.
 Le feuillage vert lustré est semi-persistant.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laurier_d%27Alexandrie</t>
+          <t>Laurier_d'Alexandrie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire de l'Asie tempérée, dans les pays suivants :  Azerbaïdjan, Iran, Syrie, Turquie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire de l'Asie tempérée, dans les pays suivants :  Azerbaïdjan, Iran, Syrie, Turquie.
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Laurier_d%27Alexandrie</t>
+          <t>Laurier_d'Alexandrie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,17 +599,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été d'abord été décrite en 1753 sous le basionyme de Ruscus racemosus par le naturaliste suédois Carl von Linné (1707-1778), puis elle a été recombinée dans le genre Danae en 1794 par le botaniste allemand Conrad Moench (1744-1805)[3].
-En classification phylogénétique APG III (2009)[4] l'espèce fait partie de la famille des Asparagaceae, et de la sous-famille des Nolinoideae.
-En classification classique de Cronquist (1981)[5] elle était assignée aux Liliaceae.
-Synonymie
-Liste des synonymes :
-Danae laurus Medik.[1]
-Danaidia racemosa (L.) Link[1]
-Ruscus racemosus L.[1],[2]
-Ruscus terminalis Salisb.[1]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été d'abord été décrite en 1753 sous le basionyme de Ruscus racemosus par le naturaliste suédois Carl von Linné (1707-1778), puis elle a été recombinée dans le genre Danae en 1794 par le botaniste allemand Conrad Moench (1744-1805).
+En classification phylogénétique APG III (2009) l'espèce fait partie de la famille des Asparagaceae, et de la sous-famille des Nolinoideae.
+En classification classique de Cronquist (1981) elle était assignée aux Liliaceae.
+</t>
         </is>
       </c>
     </row>
@@ -603,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Laurier_d%27Alexandrie</t>
+          <t>Laurier_d'Alexandrie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,10 +631,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des synonymes :
+Danae laurus Medik.
+Danaidia racemosa (L.) Link
+Ruscus racemosus L.,
+Ruscus terminalis Salisb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Laurier_d'Alexandrie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laurier_d%27Alexandrie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante cultivée comme buisson d'ornement, en bordure ou en rocaille.
 Utilisée par le passé en collier pour lutter contre la gueule de bois[réf. nécessaire].
